--- a/documentation/Casos de uso.xlsx
+++ b/documentation/Casos de uso.xlsx
@@ -7,22 +7,24 @@
     <sheet state="visible" name="CDU01.1" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="CDU01.2" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="CDU01.3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CDU02" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CDU03" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CDU04.1" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CDU04.2" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="CDU04.3" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="CDU04.4" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="CDU05.1" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="CDU05.2" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="CDU05.3" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="CDU06" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="CDU07" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="CDU08" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="CDU09" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="CDU010" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="CDU11" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="CDU12" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="CDU01.4" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CDU02" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CDU03" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CDU04.1" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CDU04.2" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="CDU04.3" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CDU04.4" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="CDU05.1" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="CDU05.2" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="CDU05.3" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="CDU06" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="CDU07" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="CDU08" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="CDU09" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="CDU10" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="CDU011" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="CDU12" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="CDU13" sheetId="22" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +43,7 @@
     <t>CDU01</t>
   </si>
   <si>
-    <t xml:space="preserve"> Manter cadastro</t>
+    <t xml:space="preserve"> Manter cadastro do usuário</t>
   </si>
   <si>
     <t>CDU02</t>
@@ -83,25 +85,25 @@
     <t>CDU08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fazer negociação</t>
+    <t xml:space="preserve"> Solicitar test drive.</t>
   </si>
   <si>
     <t>CDU09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Marcar um Test Drive</t>
+    <t xml:space="preserve"> Aprovar test drive</t>
   </si>
   <si>
     <t>CDU10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Simular seguro</t>
+    <t>Enviar mensagem de negociação</t>
   </si>
   <si>
     <t>CDU11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Simular financeamento</t>
+    <t>Visualizar mensagem de negociação</t>
   </si>
   <si>
     <t>CDU12</t>
@@ -116,70 +118,114 @@
     <t>CDU 01.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Criar cadastro.</t>
+    <t xml:space="preserve"> Criar cadastro do usuário.</t>
   </si>
   <si>
     <t>Objetivo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Criar uma conta.</t>
+    <t xml:space="preserve"> Criar uma conta na plataforma.</t>
   </si>
   <si>
     <t>Atores</t>
   </si>
   <si>
-    <t xml:space="preserve"> Usuários.</t>
+    <t xml:space="preserve"> Usuário </t>
   </si>
   <si>
     <t>Pré-condições</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator estar na tela de cadastros.</t>
+    <t xml:space="preserve"> Ator estar na tela inicial</t>
   </si>
   <si>
     <t>Trigger</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Criar conta."</t>
+    <t xml:space="preserve"> Ator escolhe a opção "Cadastre-se"</t>
   </si>
   <si>
     <t>Fluxo Principal</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Ator insere suas informações pessoais como nome, endereço de e-mail e senha desejada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Ator seleciona "Concluir cadastro."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Ator é redirecionado para a tela de catálogo.</t>
+    <t xml:space="preserve"> 1. O sistema redireciona o ator para a tela de cadastro.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. Ator insere suas informações pessoais como nome, endereço de e-mail e senha desejada</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="5"/>
+      </rPr>
+      <t xml:space="preserve"> e seleciona "Criar minha conta".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. O sistema retorna uma mensagem confirmando o cadastro em caso de êxito</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3. Ator é redirecionado para a tela </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t>de usuário.</t>
+    </r>
   </si>
   <si>
     <t>Fluxo Alternativo</t>
   </si>
   <si>
-    <t>Fluxo alternativo em caso de cadastro com Facebook ou Google:</t>
-  </si>
-  <si>
-    <t>1.1 Ator seleciona cadastro com o Facebook ou Google.</t>
-  </si>
-  <si>
-    <t>1.2 Ator segue pelas etapas da respectiva escolha.</t>
-  </si>
-  <si>
-    <t>1.3 Ator insere uma senha.</t>
-  </si>
-  <si>
-    <t>1.4 Retorna ao passo 2 do fluxo principal.</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo caso o usuário tente se cadastrar com um e-mail que já esteja cadastrado:</t>
-  </si>
-  <si>
-    <t>1.1 O sistema retorna uma mensagem de erro informando que já existe uma conta com aquele e-mail.</t>
-  </si>
-  <si>
-    <t>1.2 O ator retorna para o início da etapa 1.</t>
+    <t xml:space="preserve">Fluxo alternativo 1: em caso de cadastro com o Gmail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 Ator seleciona a opção de login com o Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3 Sistema exibe um popup com a tela de login com o Gmail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 Ator realiza login na página do gmail, preenchendo os campos email e senha de sua conta Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 Sistema redireciona o ator para a tela de completar cadastro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6 Ator informa uma senha para se autenticar na plataforma e seleciona o botão "completar cadastro"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7 Retorna ao passo 3 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluxo alternativo 2: caso o ator tente se cadastrar com um e-mail que já esteja cadastrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1 O sistema retorna uma mensagem de erro informando que já existe uma conta com aquele e-mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 O ator retorna para o início da etapa 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluxo alternativo 3: caso o ator insira uma informação não válida na etapa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1. Ator insere qualquer informação não válida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2. O sistema retorna uma mensagem de erro informando os campos válidos</t>
   </si>
   <si>
     <t>Extensões</t>
@@ -191,88 +237,177 @@
     <t>Pós-condições</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator na tela de catálogo.</t>
+    <t xml:space="preserve"> Ator na tela de catálogo e autenticado.</t>
   </si>
   <si>
     <t>Regras de negócios</t>
   </si>
   <si>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
     <t>CDU 01.2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Editar cadastro.</t>
+    <t xml:space="preserve"> Editar cadastro do usuário.</t>
   </si>
   <si>
     <t xml:space="preserve"> Que o dados cadastrais sejam alterados.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator estar na tela do perfil e logado em sua conta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Editar dados".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator modifica as informações pessoais que deseja alterar ou inserir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Ator seleciona "Concluir alterações".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Ator é redirecionado para a tela de perfil.</t>
+    <t xml:space="preserve"> Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator estar autenticado em sua conta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona "Meu perfil"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O Ator é redirecionado pelo sistema para a página que exibe as informações do usuário</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. Ator modifica as informações pessoais desejadas, tais como: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t>Nome, telefone, data de nascimento e endereço e salva as informações.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema valida os campos preenchidos, salva as informações e recarrega a página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.Retona é redirecionado para pagina de seu perfil.</t>
   </si>
   <si>
     <t>Fluxo alternativo</t>
   </si>
   <si>
-    <t>Fluxo alternativo caso o usuário tente inserir um e-mail que já esteja sendo usado por outro usuário:</t>
+    <t>Fluxo alternativo: Informações preenchidas inválidas:</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe uma informação que as informações são inválidas.</t>
+  </si>
+  <si>
+    <t>2. Retorna ao passo 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na tela de de usuário com as informações salvadas exibidas.</t>
+  </si>
+  <si>
+    <t>RN2</t>
   </si>
   <si>
     <t>CDU 01.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Visualizar cadastro.</t>
+    <t xml:space="preserve"> Visualizar cadastro do usuário.</t>
   </si>
   <si>
     <t xml:space="preserve"> Que o dados cadastrais sejam observados.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator logado em sua conta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Visualizar perfil".</t>
+    <t xml:space="preserve"> Ator autenticado em sua conta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolhe a opção "Meu perfil" na navegação.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1. Ator é redirecionado para a tela de perfil</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2. Os dados são mostrados na tela</t>
+    <t>2. Sistema carrega as informaões do ator.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela de perfil.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Excluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Que o dados cadastrais sejam excluidos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ator autenticado </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t>nos últimos 5 minutos.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolhe a opção "Deletar meu perfil" no perfil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema exibe uma mensagem de confirmação para a ação.</t>
+  </si>
+  <si>
+    <t>2. Ator seleciona a opção de confirmação.</t>
+  </si>
+  <si>
+    <t>3. Sistema exclui os dados do usuário, assim como os anúncios a ele associados.</t>
+  </si>
+  <si>
+    <t>4. Sistema redireciona ator para a página inicial</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: O ator não fez login recente (RN6):</t>
+  </si>
+  <si>
+    <t>1. O sistema exibe uma mensagem solicitando que o ator faça login novamente.</t>
+  </si>
+  <si>
+    <t>2. O sistema faz logout do ator.</t>
+  </si>
+  <si>
+    <t>3. Ator retorna ao passo 1 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator com cadastro excluído</t>
+  </si>
+  <si>
+    <t>RN5, RN6</t>
+  </si>
+  <si>
     <t>CDU 02</t>
   </si>
   <si>
-    <t xml:space="preserve"> Que o usuário esteja logado.</t>
+    <t xml:space="preserve"> Que o usuário seja autenticado.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator estar na tela principal.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Fazer login".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para uma tela de login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator insere suas credenciais.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator seleciona o botão de fazer login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Usuário é retornado para a página principal.</t>
+    <t xml:space="preserve"> Ator escolhe a opção "Fazer login" no menu de navegação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O sistema redireciona o ator para a tela de login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Ator insere suas credenciais e seleciona "Entrar".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.O sistema valida as cedenciais inseridas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. O sistema redireciona o ator para a tela inicial.</t>
   </si>
   <si>
     <t>Fluxo alternativo caso o usuário erre as informações de cadastro:</t>
@@ -284,25 +419,46 @@
     <t>1.2 O ator retorna para a etapa 1.</t>
   </si>
   <si>
+    <t>Fluxo alternativo: Caso o ator faça login com o google:</t>
+  </si>
+  <si>
+    <t>1. O ator seleciona a opção de login com o google;</t>
+  </si>
+  <si>
+    <t>2. O sistema exibe um popup com a tela da plataforma.</t>
+  </si>
+  <si>
+    <t>3. O Ator informa o email e senha e seleciona o botão de realizar login.</t>
+  </si>
+  <si>
+    <t>4. O sistema faz a autenticação do ator</t>
+  </si>
+  <si>
+    <t>5. Retorna ao passo 5 do fluxo principal.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Autenticação concluída.</t>
   </si>
   <si>
     <t>CDU 03</t>
   </si>
   <si>
-    <t xml:space="preserve"> Que o usuário não esteja logado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na tela de perfil.</t>
+    <t xml:space="preserve"> Que o usuário não esteja mais autenticado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ator estar autenticado.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator escolhe a opção "Sair".</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. O ator é perguntado se tem certeza que deseja sair.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator é redirecionado para a tela principal.</t>
+    <t>1. O sistema desautentica o ator</t>
+  </si>
+  <si>
+    <t>2. Ator é redirecionado para a página principal</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator não estar autenticado.</t>
@@ -320,163 +476,236 @@
     <t xml:space="preserve"> Vendedor.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ator estar autenticado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolhe a opção "Criar anúncio" no menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema verifica se o ator possui endereço cadastrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema redireciona o ator para a tela de criar anuncios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. O ator preenche os seguintes campos: Marca, o modelo, ano de fabricação, ano do modelo, quilometragem atual, tipo de câmbio (que pode ser automático, automatizado ou manual), placa, cor, se o veículo é novo, seminovo ou usado.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Sistema verifica se os campos foram preenchidos corretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. Ator seleciona uma imagem para ser exibida no anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. O ator seleciona a opção de confirmar a criação do anuncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. Sistema salva as informações e redireciona o ator para a tela inicial.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Ator não possui endereço cadastrado:</t>
+  </si>
+  <si>
+    <t>1.1 Sistema redireciona ator para a tela de endereço.</t>
+  </si>
+  <si>
+    <t>1.2 Ator preenche as informações do endereço (cep, logradouro, complemento, bairro, localidade, uf).</t>
+  </si>
+  <si>
+    <t>1.3 Sistema valida o endereço digitado.</t>
+  </si>
+  <si>
+    <t>1.4. Retorna ao passo 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Ator não preenche os campos corretamente:</t>
+  </si>
+  <si>
+    <t>2.1 Sistema destaca o(s) campo(s) incorretos.</t>
+  </si>
+  <si>
+    <t>2.2 Retorna ao passo 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anúncio criado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN7, RN8, RN9</t>
+  </si>
+  <si>
+    <t>CDU 04.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizar anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizar um anúncio específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estar na página de catálogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona um anuncio que deseja visualizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O ator é redirecionado para tela do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema exibe informações sobre o veículo anunciado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na página do anúncio.</t>
+  </si>
+  <si>
+    <t>CDU 04.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Editar anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Editar um anúncio.</t>
+  </si>
+  <si>
+    <t>1. Ator estar na pagina de "meus anúncios".</t>
+  </si>
+  <si>
+    <t>2. Ator estar logado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolher um anuncio que deseja editar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema redireciona ator para tela edição do anúncio selecionado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema exibe informações sobre o anúncio e permite alterações dos dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Ator seleciona a opção "salvar" para concluir alterações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Sistema valida as informações e redireciona ator para a página de "meus anúncios".</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Informações alteradas são inválidas</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe mensagem de erro para as informações inválidas.</t>
+  </si>
+  <si>
+    <t>2. Retorna ao passo 1 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na tela de de "meus anúncios" com anuncio editado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN8, RN9</t>
+  </si>
+  <si>
+    <t>CDU 04.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excluir anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excluir um anúncio.</t>
+  </si>
+  <si>
+    <t>2. Ator estar logado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona um anuncio que deseja excluir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema exibe uma mensagem de confirmação para a exclusão do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Ator confirma a exclusão do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Sistema realiza a exclusão do anúncio e redireciona para a tela de "meus aúncios".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na pagina de "meus anúncios".</t>
+  </si>
+  <si>
+    <t>RN11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CDU 05.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adicionar favorito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adicionar anuncio aos favoritos</t>
+  </si>
+  <si>
+    <t>1. Ator estar na pagina de catalogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona botão de favoritar em um anuncio.</t>
+  </si>
+  <si>
+    <t>1. Sistema adiciona o anúncio à lista de favoritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na tela do anúncio com o anuncio favoritado.</t>
+  </si>
+  <si>
+    <t>CDU 05.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remover favorito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remover anuncio dos favoritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usuário (tanto comprador como vendedor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ator estar na pagina de anúncios favoritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona a opção de desfavoritar o anúncio escolhido.</t>
+  </si>
+  <si>
+    <t>1 . Sistema retira o anúncio da lista de favoritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na tela do anúncio com o anuncio desfavoritado.</t>
+  </si>
+  <si>
+    <t>CDU 05.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizar favoritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizar favoritos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ator estar logado.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Vender".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para tela de criar anuncios onde informa as características do veículo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator informa a marca, o modelo, ano de fabricação, ano do modelo, quilometragem atual, tipo de câmbio, placa, cor e escrever uma descrição.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator confirma o anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Usuário é retornado para a página do seu anúncio.</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anúncio criado.</t>
-  </si>
-  <si>
-    <t>CDU 04.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Visualizar anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Visualizar um anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na pagina de anuncios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator escolher um anuncio que deseja.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para tela do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema exibe informações sobre o veículo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator na tela de anúncio.</t>
-  </si>
-  <si>
-    <t>CDU 04.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Editar anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Editar um anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na pagina de perfil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator escolher um anuncio que deseja editar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para tela edição do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema exibe informações sobre o veículo e permite alterações.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O autor seleciona "salvar" para concluir alterações.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Autor redirecionado para tela do perfil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator na tela de de perfil com anuncio editado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CDU 04.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excluir anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excluir um anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para tela de editar anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema exibe informações sobre o anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O usuário escolhe excluir anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. O sistema pergunta confirmando a escolha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5. Ator redirecionado para o perfil.</t>
-  </si>
-  <si>
-    <t>CDU 05.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adicionar favorito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adicionar anuncio aos favoritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na pagina de catalogo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O usuário escolhe favoritar o anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator na tela do anúncio com o anuncio favoritado.</t>
-  </si>
-  <si>
-    <t>CDU 05.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remover favorito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remover anuncio dos favoritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O usuário escolhe desfavoritar o anúncio.</t>
-  </si>
-  <si>
-    <t>CDU 05.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Visualizar favoritos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Visualizar favoritos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator entrar na pagina do perfil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O sistema carrega os anuncios favoritados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator seleciona o favorito desejado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator é redirecionado para tela do anúncio.</t>
+    <t>Ator selecionar a opção "anúncios favoritos" no menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O sistema exibe todos os anúncios favoritos do ator.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Ator não possui nenhum anúncio favorito.</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe uma mensagem informando que o ator ainda não favoritou nenhum anúncio.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela do anúncio favoritado.</t>
@@ -488,16 +717,10 @@
     <t xml:space="preserve"> Visualizar lista geral de anúncios.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator estar no site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator clicar em visualizar anuncios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para a tela de anuncios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O sistema carrega uma tabela com anuncios.</t>
+    <t>Ator entra na página inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema exibe uma lista com todos os anúncios ativos.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela dos anúncios.</t>
@@ -509,40 +732,115 @@
     <t xml:space="preserve"> Selecionar anúncio.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Visualizar anuncio do catalogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator clicar em um anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado pra página do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O sistema carrega as informações do anúncio.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CDU08, CDU09, CDU10, CDU11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator na tela do anúncio.</t>
-  </si>
-  <si>
     <t>CDU 08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fazer negociação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enviar proposta ao vendedor.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comprador.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator estar na pagina do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator seleciona um anuncio.</t>
+    <t xml:space="preserve"> Ator estar na pagina de um anúncio específico.</t>
+  </si>
+  <si>
+    <t>Ator seleciona a opção "marcar test drive" no anúncio</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe um popup com as opções mara marcar um test drive</t>
+  </si>
+  <si>
+    <t>2. Ator seleciona no campo calendário o dia e informa um horário para o test drive.</t>
+  </si>
+  <si>
+    <t>3. Sistema verifica se há disponibilidade para o dia e horário selecionado.</t>
+  </si>
+  <si>
+    <t>4. Ator seleciona a opção "Solicitar test drive".</t>
+  </si>
+  <si>
+    <t>5. Sistema salva as informações e retorna para a tela do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. Sistema notifica o anunciante sobre o novo test drive.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Não há disponibilidade para o dia e horário solicitado.</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe uma mensagem informando que não há disponibilidade para o dia e/ou horário solicitado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test drive pré agendado, aguardando aprovação do anunciante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN12, RN13, RN14, RN15</t>
+  </si>
+  <si>
+    <t>CDU 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprovar a solicitação de um test drive</t>
+  </si>
+  <si>
+    <t>1. Haver solicitação de test drive pendente.</t>
+  </si>
+  <si>
+    <t>Sistema notificar a solicitação de um novo test drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ator abre a notificação de um novo test drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema mostra o dia e horário solicitado e o nome do solicitante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Ator seleciona a opção desejada sobre a solicitação (aprovar ou não).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Sistema notifica o comprador sobre o status da solicitação.</t>
+  </si>
+  <si>
+    <t>O test drive ter sido aprovado ou não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN15</t>
+  </si>
+  <si>
+    <t>CDU 10</t>
+  </si>
+  <si>
+    <t>Enviar mensagem de negociação de um anúncio</t>
+  </si>
+  <si>
+    <t>Comprador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ator estar na pagina do anúncio.</t>
+  </si>
+  <si>
+    <t>Ator selecionar a opção de enviar mensagem ao vendedor</t>
+  </si>
+  <si>
+    <t>1. Sistema redireciona o ator para uma tela onde as mensagens poderão ser enviadas.</t>
+  </si>
+  <si>
+    <t>2. Ator preenche a mensagem e seleciona o botão de enviar.</t>
+  </si>
+  <si>
+    <t>3. Sistema envia a mensagem ao vendedor juntamente com as informações do veículo em questão.</t>
+  </si>
+  <si>
+    <t>O vendedor recebe uma mensagem do comprador.</t>
+  </si>
+  <si>
+    <t>CDU 11</t>
+  </si>
+  <si>
+    <t>Visualizar uma mensagem de negociação</t>
+  </si>
+  <si>
+    <t>Ator recebe notificação de uma mensagem de negociação</t>
   </si>
   <si>
     <t xml:space="preserve"> 1. Ator seleciona negociar.</t>
@@ -557,58 +855,7 @@
     <t xml:space="preserve"> Anunciante recebe comunicação da oferta.</t>
   </si>
   <si>
-    <t>CDU 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marcar test drive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator seleciona test drive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator seleciona uma data para o test drive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator confirma a seleção.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anunciante e interessado recebem comunicação do compromisso.</t>
-  </si>
-  <si>
-    <t>CDU 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Simular seguro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator seleciona simular seguro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator seleciona a opção de simular seguro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O sistema retorna uma estimativa do seguro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O usuário ter uma extimativa de quanto seria o seguro.</t>
-  </si>
-  <si>
-    <t>CDU 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Simular financiamento.</t>
-  </si>
-  <si>
-    <t>Comprador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator seleciona a opção de simular financiamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O sistema retorna uma estimativa do financiamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O usuário ter uma extimativa de quanto seria o financiamento.</t>
+    <t xml:space="preserve"> RN11</t>
   </si>
   <si>
     <t>CDU 12</t>
@@ -617,29 +864,59 @@
     <t xml:space="preserve"> Finalizar negociação.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Que o carro seja dado como vendido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator seleciona o anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O ator seleciona o botão de concluir negociação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator é redirecionado para uma página para detalhar a venda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator é redirecionado para seu perfil.</t>
+    <t xml:space="preserve"> Que o anúncio seja finalizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator estar na pagina de "meus anúncios".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona o anuncio que deseja finalizar.</t>
+  </si>
+  <si>
+    <t>1. Sistema carrega a página do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. O ator seleciona o botão de concluir negociação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. O sistema altera o status do anúncio para "concluído" e exibe uma mensagem ao ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. O sistema redireciona o ator para a página de "meus anúncios".</t>
   </si>
   <si>
     <t xml:space="preserve"> O anúncio não estar mais disponível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Altera tema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Que o tema da aplicação seja alternado entre claro e escuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usuário (tanto Comprador como Vendedor)</t>
+  </si>
+  <si>
+    <t>O ator precisa estar logado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona a opção "altera tema" no menu</t>
+  </si>
+  <si>
+    <t>1. Ator seleciona o tema desejado (claro ou escuro).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. O sistema altera as cores de acordo com a opção escolhida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema com as cores alteradas aplicadas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -668,8 +945,18 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +975,14 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border/>
     <border>
       <left style="thin">
@@ -774,12 +1067,28 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -856,42 +1165,16 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -903,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -927,6 +1210,9 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -940,69 +1226,154 @@
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,6 +1432,14 @@
 </file>
 
 <file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1372,7 +1751,7 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1380,7 +1759,7 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1438,136 +1817,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>125</v>
+      <c r="C3" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>126</v>
+      <c r="C4" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
+      <c r="C6" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="32" t="s">
-        <v>129</v>
+      <c r="C9" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="18"/>
-      <c r="C11" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="33" t="s">
-        <v>131</v>
+      <c r="B11" s="20"/>
+      <c r="C11" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>51</v>
+      <c r="B13" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>51</v>
+      <c r="B14" s="27"/>
+      <c r="C14" s="54" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>112</v>
+      <c r="B15" s="32"/>
+      <c r="C15" s="54" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="10"/>
+      <c r="B16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A17"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D17"/>
+    <mergeCell ref="D1:D19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1588,124 +1980,130 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>133</v>
+      <c r="C3" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>134</v>
+      <c r="C4" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>135</v>
+      <c r="C6" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>128</v>
+      <c r="C9" s="35" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
+      <c r="B10" s="27"/>
+      <c r="C10" s="48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" ht="27.0" customHeight="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="59" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+      <c r="B12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>137</v>
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A15"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A16"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D15"/>
+    <mergeCell ref="D1:D16"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1726,124 +2124,120 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="23"/>
+      <c r="C7" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="B10" s="40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="34" t="s">
-        <v>141</v>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D15"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1864,124 +2258,120 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>143</v>
+      <c r="C3" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>144</v>
+      <c r="C4" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
+      <c r="C6" s="39" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="35" t="s">
-        <v>147</v>
+      <c r="C9" s="24" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="36" t="s">
-        <v>148</v>
+      <c r="B10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D15"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2002,109 +2392,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>151</v>
+      <c r="C3" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>151</v>
+      <c r="C4" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>152</v>
+      <c r="C6" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>153</v>
+      <c r="C7" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>154</v>
+      <c r="C8" s="61" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
+      <c r="B9" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" customHeight="1">
+      <c r="B10" s="32"/>
+      <c r="C10" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>51</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>156</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2112,7 +2504,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -2134,118 +2526,113 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>158</v>
+      <c r="C3" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>159</v>
+      <c r="C4" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>135</v>
+      <c r="C6" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>160</v>
+      <c r="C7" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>161</v>
+      <c r="C8" s="35" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="35" t="s">
-        <v>162</v>
+      <c r="B9" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
+      <c r="B10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>163</v>
+      <c r="B11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11"/>
     </row>
     <row r="14">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A13"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D13"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2266,124 +2653,120 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>166</v>
+      <c r="C3" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>167</v>
+      <c r="C4" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>168</v>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>169</v>
+      <c r="C6" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>170</v>
+      <c r="C7" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>171</v>
+      <c r="C8" s="35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="35" t="s">
-        <v>172</v>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="36" t="s">
-        <v>173</v>
+      <c r="B10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="D1:D15"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2404,124 +2787,157 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>176</v>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>176</v>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>168</v>
+      <c r="C5" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>169</v>
+      <c r="C6" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" ht="29.25" customHeight="1">
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
+      <c r="C8" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" ht="29.25" customHeight="1">
+      <c r="B9" s="27"/>
+      <c r="C9" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="B10" s="27"/>
+      <c r="C10" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="27"/>
+      <c r="C11" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="B12" s="27"/>
+      <c r="C12" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="B13" s="32"/>
+      <c r="C13" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="B14" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" ht="33.0" customHeight="1">
+      <c r="B15" s="27"/>
+      <c r="C15" s="64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="B16" s="32"/>
+      <c r="C16" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:A20"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D20"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="D1:D15"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2542,124 +2958,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>182</v>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>182</v>
+      <c r="C4" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>168</v>
+      <c r="C5" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>169</v>
+      <c r="C6" s="26" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
       <c r="C9" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" ht="29.25" customHeight="1">
+      <c r="B10" s="27"/>
+      <c r="C10" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="27"/>
+      <c r="C11" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="32"/>
+      <c r="C12" s="59" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>186</v>
+      <c r="B13" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:A17"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D17"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="D1:D15"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2680,118 +3111,133 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>188</v>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>188</v>
+      <c r="C4" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>189</v>
+      <c r="C5" s="39" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>169</v>
+      <c r="C6" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
       <c r="C9" s="35" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>51</v>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="B11" s="23"/>
+      <c r="C11" s="21" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>192</v>
+      <c r="B12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A16"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D16"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2812,51 +3258,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2864,114 +3310,153 @@
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="16" t="s">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" ht="30.0" customHeight="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="23" t="s">
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26" t="s">
+    <row r="16" ht="30.75" customHeight="1">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="s">
+    <row r="18" ht="29.25" customHeight="1">
+      <c r="B18" s="27"/>
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="13" t="s">
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="B20" s="27"/>
+      <c r="C20" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="29" t="s">
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="B21" s="27"/>
+      <c r="C21" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="13" t="s">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="27"/>
+      <c r="C22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+    </row>
+    <row r="23" ht="30.0" customHeight="1">
+      <c r="B23" s="27"/>
+      <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="13" t="s">
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="B24" s="27"/>
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="10"/>
+    </row>
+    <row r="25" ht="30.0" customHeight="1">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="B28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D23"/>
+    <mergeCell ref="D2:D29"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2988,119 +3473,119 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.88"/>
+    <col customWidth="1" min="3" max="3" width="50.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>194</v>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>195</v>
+      <c r="C4" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>95</v>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
+      <c r="C6" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>196</v>
+      <c r="C7" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>197</v>
+      <c r="C8" s="35" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="35" t="s">
-        <v>198</v>
+      <c r="B9" s="20"/>
+      <c r="C9" s="48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="37" t="s">
-        <v>199</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="59" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
+      <c r="B11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
+      <c r="B12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>200</v>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3110,6 +3595,286 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="50.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="27"/>
+      <c r="C9" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="B10" s="27"/>
+      <c r="C10" s="48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="50.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="59" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="B10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3130,136 +3895,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>56</v>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>57</v>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>58</v>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>59</v>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" ht="37.5" customHeight="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="23"/>
+      <c r="C11" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="B12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="32"/>
+      <c r="C14" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A17"/>
+    <mergeCell ref="A1:A18"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D17"/>
+    <mergeCell ref="D1:D18"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3280,103 +4053,105 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>68</v>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
+      <c r="C7" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>70</v>
+      <c r="C8" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="19" t="s">
-        <v>71</v>
+      <c r="B9" s="32"/>
+      <c r="C9" s="38" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
+      <c r="B10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>51</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>72</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3406,140 +4181,145 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
+      <c r="C3" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>74</v>
+      <c r="C4" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>75</v>
+      <c r="C6" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>76</v>
+      <c r="C7" s="39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>77</v>
+      <c r="C8" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
-        <v>79</v>
+      <c r="B9" s="27"/>
+      <c r="C9" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="B10" s="27"/>
+      <c r="C10" s="42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>80</v>
+      <c r="B11" s="32"/>
+      <c r="C11" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
+      <c r="B12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
       <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>51</v>
+      <c r="C14" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="B15" s="32"/>
+      <c r="C15" s="47" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>84</v>
+      <c r="B16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="10"/>
+      <c r="B17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D18"/>
+    <mergeCell ref="D1:D19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3560,117 +4340,178 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>86</v>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>87</v>
+      <c r="C6" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>88</v>
+      <c r="C7" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>89</v>
+      <c r="C8" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="31" t="s">
-        <v>90</v>
+      <c r="B9" s="27"/>
+      <c r="C9" s="48" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
+      <c r="B10" s="27"/>
+      <c r="C10" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>51</v>
+      <c r="B11" s="32"/>
+      <c r="C11" s="38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="27"/>
+      <c r="C14" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="27"/>
+      <c r="C15" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="27"/>
+      <c r="C16" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="27"/>
+      <c r="C18" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="27"/>
+      <c r="C19" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="32"/>
+      <c r="C20" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A24"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D24"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3691,127 +4532,119 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>93</v>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>94</v>
+      <c r="C4" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>95</v>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>96</v>
+      <c r="C6" s="54" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" ht="30.0" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" ht="45.0" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>99</v>
+      <c r="C8" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="23"/>
+      <c r="C9" s="55" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
-        <v>100</v>
+      <c r="B10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>101</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>103</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D16"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3832,115 +4665,190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>106</v>
+      <c r="C3" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>107</v>
+      <c r="C4" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>95</v>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>108</v>
+      <c r="C6" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
+      <c r="C8" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>51</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" ht="53.25" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="56" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>112</v>
+      <c r="B12" s="20"/>
+      <c r="C12" s="56" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="10"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" ht="30.75" customHeight="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="27"/>
+      <c r="C16" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" ht="35.25" customHeight="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="27"/>
+      <c r="C18" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="27"/>
+      <c r="C19" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="27"/>
+      <c r="C20" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="27"/>
+      <c r="C21" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="32"/>
+      <c r="C22" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="B25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A26"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D26"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3961,127 +4869,117 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2">
-      <c r="B2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>114</v>
+      <c r="C3" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>115</v>
+      <c r="C4" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>95</v>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
+      <c r="C6" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>117</v>
+      <c r="C7" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>119</v>
+      <c r="C8" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
-        <v>120</v>
+      <c r="B10" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>121</v>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>51</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D16"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/documentation/Casos de uso.xlsx
+++ b/documentation/Casos de uso.xlsx
@@ -22,9 +22,8 @@
     <sheet state="visible" name="CDU08" sheetId="17" r:id="rId20"/>
     <sheet state="visible" name="CDU09" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="CDU10" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="CDU011" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="CDU11" sheetId="20" r:id="rId23"/>
     <sheet state="visible" name="CDU12" sheetId="21" r:id="rId24"/>
-    <sheet state="visible" name="CDU13" sheetId="22" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="261">
   <si>
     <t>ID</t>
   </si>
@@ -79,37 +78,37 @@
     <t>CDU07</t>
   </si>
   <si>
-    <t xml:space="preserve"> Selecionar anúncio</t>
+    <t xml:space="preserve"> Solicitar test drive.</t>
   </si>
   <si>
     <t>CDU08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Solicitar test drive.</t>
+    <t xml:space="preserve"> Aprovar test drive</t>
   </si>
   <si>
     <t>CDU09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Aprovar test drive</t>
+    <t xml:space="preserve"> Enviar mensagem de negociação</t>
   </si>
   <si>
     <t>CDU10</t>
   </si>
   <si>
-    <t>Enviar mensagem de negociação</t>
+    <t xml:space="preserve"> Visualizar chat de negociação</t>
   </si>
   <si>
     <t>CDU11</t>
   </si>
   <si>
-    <t>Visualizar mensagem de negociação</t>
+    <t xml:space="preserve"> Finalizar negociação</t>
   </si>
   <si>
     <t>CDU12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Finaliza negociação</t>
+    <t xml:space="preserve"> Alterar tema</t>
   </si>
   <si>
     <t>|</t>
@@ -136,7 +135,7 @@
     <t>Pré-condições</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator estar na tela inicial</t>
+    <t xml:space="preserve"> Ator na tela inicial</t>
   </si>
   <si>
     <t>Trigger</t>
@@ -161,13 +160,13 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="5"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> e seleciona "Criar minha conta".</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 2. O sistema retorna uma mensagem confirmando o cadastro em caso de êxito</t>
+    <t xml:space="preserve"> 3. O sistema retorna uma mensagem confirmando o cadastro em caso de êxito</t>
   </si>
   <si>
     <r>
@@ -175,133 +174,117 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> 3. Ator é redirecionado para a tela </t>
+      <t xml:space="preserve"> 4. Ator é redirecionado para a tela </t>
     </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
-      </rPr>
-      <t>de usuário.</t>
-    </r>
-  </si>
-  <si>
-    <t>Fluxo Alternativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxo alternativo 1: em caso de cadastro com o Gmail </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 Ator seleciona a opção de login com o Google.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3 Sistema exibe um popup com a tela de login com o Gmail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4 Ator realiza login na página do gmail, preenchendo os campos email e senha de sua conta Google.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5 Sistema redireciona o ator para a tela de completar cadastro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6 Ator informa uma senha para se autenticar na plataforma e seleciona o botão "completar cadastro"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.7 Retorna ao passo 3 do fluxo principal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fluxo alternativo 2: caso o ator tente se cadastrar com um e-mail que já esteja cadastrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.1 O sistema retorna uma mensagem de erro informando que já existe uma conta com aquele e-mail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2 O ator retorna para o início da etapa 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fluxo alternativo 3: caso o ator insira uma informação não válida na etapa 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1. Ator insere qualquer informação não válida</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2. O sistema retorna uma mensagem de erro informando os campos válidos</t>
-  </si>
-  <si>
-    <t>Extensões</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N/A</t>
-  </si>
-  <si>
-    <t>Pós-condições</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator na tela de catálogo e autenticado.</t>
-  </si>
-  <si>
-    <t>Regras de negócios</t>
-  </si>
-  <si>
-    <t>RN1, RN2, RN3</t>
-  </si>
-  <si>
-    <t>CDU 01.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Editar cadastro do usuário.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Que o dados cadastrais sejam alterados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar autenticado em sua conta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator seleciona "Meu perfil"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O Ator é redirecionado pelo sistema para a página que exibe as informações do usuário</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> 2. Ator modifica as informações pessoais desejadas, tais como: </t>
+      <t>de usuário.</t>
     </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
-      </rPr>
-      <t>Nome, telefone, data de nascimento e endereço e salva as informações.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema valida os campos preenchidos, salva as informações e recarrega a página.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.Retona é redirecionado para pagina de seu perfil.</t>
+  </si>
+  <si>
+    <t>Fluxo Alternativo</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo 1: em caso de cadastro com o Gmail  (etapa1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1 Ator seleciona a opção de login com o Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 Sistema exibe um popup com a tela de login com o Gmail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3 Ator realiza login na página do gmail, preenchendo os campos email e senha de sua conta Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 Sistema redireciona o ator para a tela de completar cadastro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 Ator informa uma senha para se autenticar na plataforma e seleciona o botão "completar cadastro"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6 Retorna ao passo 3 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluxo alternativo 2: caso o ator tente se cadastrar com um e-mail que já esteja cadastrado (etapa 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 O sistema retorna uma mensagem de erro informando que já existe uma conta com aquele e-mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 O ator retorna para o início da etapa 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluxo alternativo 3: caso o ator insira uma informação não válida na etapa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1. Ator insere qualquer informação não válida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2. O sistema retorna uma mensagem de erro informando os campos inválidos</t>
+  </si>
+  <si>
+    <t>Extensões</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N/A</t>
+  </si>
+  <si>
+    <t>Pós-condições</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator autenticado.</t>
+  </si>
+  <si>
+    <t>Regras de negócio</t>
+  </si>
+  <si>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
+    <t>CDU 01.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Editar cadastro do usuário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Que o dados cadastrais sejam alterados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator autenticado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona "Meu perfil"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Sistema redireciona Ator para a página que exibe as informações do usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Ator modifica as informações pessoais desejadas, tais como: Nome, telefone, data de nascimento e endereço e salva as informações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Sistema valida os campos preenchidos, salva as informações e recarrega a página.</t>
   </si>
   <si>
     <t>Fluxo alternativo</t>
   </si>
   <si>
-    <t>Fluxo alternativo: Informações preenchidas inválidas:</t>
-  </si>
-  <si>
-    <t>1. Sistema exibe uma informação que as informações são inválidas.</t>
-  </si>
-  <si>
-    <t>2. Retorna ao passo 2 do fluxo principal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator na tela de de usuário com as informações salvadas exibidas.</t>
+    <t>Fluxo alternativo: Informações preenchidas inválidas(etapa2):</t>
+  </si>
+  <si>
+    <t>2.1. Sistema exibe mensagem dizendo que as informações são inválidas.</t>
+  </si>
+  <si>
+    <t>2.2. Retorna ao passo 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t>Ator na tela de perfil; Informações alteradas.</t>
   </si>
   <si>
     <t>RN2</t>
@@ -316,25 +299,64 @@
     <t xml:space="preserve"> Que o dados cadastrais sejam observados.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ator autenticado em sua conta.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ator escolhe a opção "Meu perfil" na navegação.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Ator é redirecionado para a tela de perfil</t>
-  </si>
-  <si>
-    <t>2. Sistema carrega as informaões do ator.</t>
+    <t xml:space="preserve"> 1. Sistema redireciona Ator para a tela de perfil</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela de perfil.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Excluir</t>
+    <t>CDU 01.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excluir cadastro do usuário</t>
   </si>
   <si>
     <t xml:space="preserve"> Que o dados cadastrais sejam excluidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolhe a opção "Deletar meu perfil" no perfil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema exibe uma mensagem de confirmação para a ação.</t>
+  </si>
+  <si>
+    <t>2. Ator seleciona a opção de confirmação.</t>
+  </si>
+  <si>
+    <t>3. Sistema exclui os dados do usuário, assim como os anúncios a ele associados.</t>
+  </si>
+  <si>
+    <t>4. Sistema redireciona ator para a página inicial</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Cadastro excluído</t>
+  </si>
+  <si>
+    <t>RN5, RN6</t>
+  </si>
+  <si>
+    <t>CDU 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Que o usuário seja autenticado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator na tela principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator escolhe a opção "Fazer login" no menu de navegação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O sistema redireciona o ator para a tela de login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Ator insere suas credenciais e seleciona "Entrar".</t>
   </si>
   <si>
     <r>
@@ -342,102 +364,42 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> Ator autenticado </t>
+      <t xml:space="preserve"> 3.O sistema valida as cedenciais inseridas </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
+        <color theme="1"/>
       </rPr>
-      <t>nos últimos 5 minutos.</t>
+      <t xml:space="preserve"> e redireciona o ator para a tela inicial.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Deletar meu perfil" no perfil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Sistema exibe uma mensagem de confirmação para a ação.</t>
-  </si>
-  <si>
-    <t>2. Ator seleciona a opção de confirmação.</t>
-  </si>
-  <si>
-    <t>3. Sistema exclui os dados do usuário, assim como os anúncios a ele associados.</t>
-  </si>
-  <si>
-    <t>4. Sistema redireciona ator para a página inicial</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo: O ator não fez login recente (RN6):</t>
-  </si>
-  <si>
-    <t>1. O sistema exibe uma mensagem solicitando que o ator faça login novamente.</t>
-  </si>
-  <si>
-    <t>2. O sistema faz logout do ator.</t>
-  </si>
-  <si>
-    <t>3. Ator retorna ao passo 1 do fluxo principal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator com cadastro excluído</t>
-  </si>
-  <si>
-    <t>RN5, RN6</t>
-  </si>
-  <si>
-    <t>CDU 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Que o usuário seja autenticado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na tela principal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator escolhe a opção "Fazer login" no menu de navegação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. O sistema redireciona o ator para a tela de login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Ator insere suas credenciais e seleciona "Entrar".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.O sistema valida as cedenciais inseridas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5. O sistema redireciona o ator para a tela inicial.</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo caso o usuário erre as informações de cadastro:</t>
-  </si>
-  <si>
-    <t>1.1 O sistema retorna uma mensagem de erro informando que a combinação de e-mail e senha não coincidem.</t>
-  </si>
-  <si>
-    <t>1.2 O ator retorna para a etapa 1.</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo: Caso o ator faça login com o google:</t>
-  </si>
-  <si>
-    <t>1. O ator seleciona a opção de login com o google;</t>
-  </si>
-  <si>
-    <t>2. O sistema exibe um popup com a tela da plataforma.</t>
-  </si>
-  <si>
-    <t>3. O Ator informa o email e senha e seleciona o botão de realizar login.</t>
-  </si>
-  <si>
-    <t>4. O sistema faz a autenticação do ator</t>
-  </si>
-  <si>
-    <t>5. Retorna ao passo 5 do fluxo principal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autenticação concluída.</t>
+    <t>Fluxo alternativo caso o usuário erre as informações de cadastro(etapa 2):</t>
+  </si>
+  <si>
+    <t>2.1 O sistema retorna uma mensagem de erro informando que a combinação de e-mail e senha não coincidem.</t>
+  </si>
+  <si>
+    <t>2.2 O ator retorna para a etapa 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Caso o ator faça login com o google(Etapa 1):</t>
+  </si>
+  <si>
+    <t>1.1. O ator seleciona a opção de login com o google;</t>
+  </si>
+  <si>
+    <t>1.2. O sistema exibe um popup com a tela da plataforma.</t>
+  </si>
+  <si>
+    <t>1.3. O Ator informa o email e senha e seleciona o botão de realizar login.</t>
+  </si>
+  <si>
+    <t>1.4. Retorna ao passo 3 do fluxo principal.</t>
+  </si>
+  <si>
+    <t>Ator autenticado</t>
   </si>
   <si>
     <t>CDU 03</t>
@@ -458,12 +420,12 @@
     <t>2. Ator é redirecionado para a página principal</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ator não estar autenticado.</t>
   </si>
   <si>
+    <t>Regras de negócios</t>
+  </si>
+  <si>
     <t>CDU 04.1</t>
   </si>
   <si>
@@ -482,32 +444,86 @@
     <t xml:space="preserve"> Ator escolhe a opção "Criar anúncio" no menu.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Sistema verifica se o ator possui endereço cadastrado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema redireciona o ator para a tela de criar anuncios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator preenche os seguintes campos: Marca, o modelo, ano de fabricação, ano do modelo, quilometragem atual, tipo de câmbio (que pode ser automático, automatizado ou manual), placa, cor, se o veículo é novo, seminovo ou usado.
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Sistema verifica se o ator possui endereço cadastrado </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>e redireciona o ator para a tela de criar anuncios</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. O ator preenche os seguintes campos: Marca, o modelo, ano de fabricação, ano do modelo, quilometragem atual, tipo de câmbio (que pode ser automático, automatizado ou manual), placa, cor, se o veículo é novo, seminovo ou usado </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>e seleciona uma imagem para ser exibida no anúncio.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Sistema verifica se os campos foram preenchidos corretamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5. Ator seleciona uma imagem para ser exibida no anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6. O ator seleciona a opção de confirmar a criação do anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7. Sistema salva as informações e redireciona o ator para a tela inicial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3. Sistema verifica se os campos foram preenchidos corretamente </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>e se uma imagem foi selecionada</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. O ator seleciona a opção de confirmar a criação do anuncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. Sistema salva as informações e redireciona o ator para a tela inicial.</t>
   </si>
   <si>
     <t>Fluxo alternativo.</t>
   </si>
   <si>
-    <t>Fluxo alternativo: Ator não possui endereço cadastrado:</t>
+    <t>Fluxo alternativo: Ator não possui endereço cadastrado(Etapa 1):</t>
   </si>
   <si>
     <t>1.1 Sistema redireciona ator para a tela de endereço.</t>
@@ -522,7 +538,20 @@
     <t>1.4. Retorna ao passo 2 do fluxo principal.</t>
   </si>
   <si>
-    <t>Fluxo alternativo: Ator não preenche os campos corretamente:</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Fluxo alternativo: Ator não preenche os campos corretamente(Etapa 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
   <si>
     <t>2.1 Sistema destaca o(s) campo(s) incorretos.</t>
@@ -552,10 +581,7 @@
     <t xml:space="preserve"> Ator seleciona um anuncio que deseja visualizar.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. O ator é redirecionado para tela do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema exibe informações sobre o veículo anunciado.</t>
+    <t xml:space="preserve"> 1. Sistema redireciona Ator para tela do anúncio.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na página do anúncio.</t>
@@ -582,22 +608,39 @@
     <t xml:space="preserve"> 1. Sistema redireciona ator para tela edição do anúncio selecionado.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2. Sistema exibe informações sobre o anúncio e permite alterações dos dados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Ator seleciona a opção "salvar" para concluir alterações.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Sistema valida as informações e redireciona ator para a página de "meus anúncios".</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo: Informações alteradas são inválidas</t>
-  </si>
-  <si>
-    <t>1. Sistema exibe mensagem de erro para as informações inválidas.</t>
-  </si>
-  <si>
-    <t>2. Retorna ao passo 1 do fluxo principal.</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Ator modifica anúncio</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> e seleciona a opção "salvar" para concluir alterações.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Sistema valida as informações e redireciona ator para a página de "meus anúncios".</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Informações alteradas são inválidas (etapa 2)</t>
+  </si>
+  <si>
+    <t>2.1. Sistema exibe mensagem de erro para as informações inválidas.</t>
+  </si>
+  <si>
+    <t>2.2 Retorna ao passo 1 do fluxo principal.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela de de "meus anúncios" com anuncio editado.</t>
@@ -621,13 +664,7 @@
     <t xml:space="preserve"> Ator seleciona um anuncio que deseja excluir.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Sistema exibe uma mensagem de confirmação para a exclusão do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Ator confirma a exclusão do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Sistema realiza a exclusão do anúncio e redireciona para a tela de "meus aúncios".</t>
+    <t xml:space="preserve"> 1. Sistema exclui anúncio.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na pagina de "meus anúncios".</t>
@@ -702,10 +739,10 @@
     <t xml:space="preserve"> 1. O sistema exibe todos os anúncios favoritos do ator.</t>
   </si>
   <si>
-    <t>Fluxo alternativo: Ator não possui nenhum anúncio favorito.</t>
-  </si>
-  <si>
-    <t>1. Sistema exibe uma mensagem informando que o ator ainda não favoritou nenhum anúncio.</t>
+    <t>Fluxo alternativo: Ator não possui nenhum anúncio favorito (etapa1).</t>
+  </si>
+  <si>
+    <t>1.1 Sistema exibe uma mensagem informando que o ator ainda não favoritou nenhum anúncio.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ator na tela do anúncio favoritado.</t>
@@ -729,165 +766,201 @@
     <t>CDU 07</t>
   </si>
   <si>
-    <t xml:space="preserve"> Selecionar anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CDU08, CDU09, CDU10, CDU11</t>
+    <t xml:space="preserve"> Comprador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator estar na pagina de um anúncio.</t>
+  </si>
+  <si>
+    <t>Ator seleciona a opção "marcar test drive" no anúncio</t>
+  </si>
+  <si>
+    <t>1. Sistema exibe um popup com as opções para marcar um test drive</t>
+  </si>
+  <si>
+    <t>2. Ator seleciona no campo calendário o dia e informa um horário para o test drive.</t>
+  </si>
+  <si>
+    <t>3. Sistema verifica se há disponibilidade para o dia e horário selecionado.</t>
+  </si>
+  <si>
+    <t>4. Ator seleciona a opção "Solicitar test drive".</t>
+  </si>
+  <si>
+    <t>5. Sistema salva as informações e retorna para a tela do anúncio.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: Não há disponibilidade para o dia e horário solicitado (etapa 3).</t>
+  </si>
+  <si>
+    <t>3.1. Sistema exibe uma mensagem informando que não há disponibilidade para o dia e/ou horário solicitado.</t>
+  </si>
+  <si>
+    <t>3.2. Retorna ao passo 2 do fluxo principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test drive pré agendado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN12, RN13, RN14, RN15</t>
   </si>
   <si>
     <t>CDU 08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Comprador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na pagina de um anúncio específico.</t>
-  </si>
-  <si>
-    <t>Ator seleciona a opção "marcar test drive" no anúncio</t>
-  </si>
-  <si>
-    <t>1. Sistema exibe um popup com as opções mara marcar um test drive</t>
-  </si>
-  <si>
-    <t>2. Ator seleciona no campo calendário o dia e informa um horário para o test drive.</t>
-  </si>
-  <si>
-    <t>3. Sistema verifica se há disponibilidade para o dia e horário selecionado.</t>
-  </si>
-  <si>
-    <t>4. Ator seleciona a opção "Solicitar test drive".</t>
-  </si>
-  <si>
-    <t>5. Sistema salva as informações e retorna para a tela do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6. Sistema notifica o anunciante sobre o novo test drive.</t>
-  </si>
-  <si>
-    <t>Fluxo alternativo: Não há disponibilidade para o dia e horário solicitado.</t>
-  </si>
-  <si>
-    <t>1. Sistema exibe uma mensagem informando que não há disponibilidade para o dia e/ou horário solicitado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test drive pré agendado, aguardando aprovação do anunciante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RN12, RN13, RN14, RN15</t>
+    <t xml:space="preserve"> Aprovar a solicitação de um test drive</t>
+  </si>
+  <si>
+    <t>1. Haver solicitação de test drive pendente.</t>
+  </si>
+  <si>
+    <t>Sistema notificar a solicitação de um novo test drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ator abre a notificação de um novo test drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Sistema mostra o dia e horário solicitado e o nome do solicitante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Ator aprova test-drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Sistema notifica  comprador.</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo: (etapa 3)
+3.1 - Ator não aprova o test-drive 
+Retorna a etapa 4</t>
+  </si>
+  <si>
+    <t>Status do test-drive atualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN15</t>
   </si>
   <si>
     <t>CDU 09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Aprovar a solicitação de um test drive</t>
-  </si>
-  <si>
-    <t>1. Haver solicitação de test drive pendente.</t>
-  </si>
-  <si>
-    <t>Sistema notificar a solicitação de um novo test drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator abre a notificação de um novo test drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sistema mostra o dia e horário solicitado e o nome do solicitante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Ator seleciona a opção desejada sobre a solicitação (aprovar ou não).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Sistema notifica o comprador sobre o status da solicitação.</t>
-  </si>
-  <si>
-    <t>O test drive ter sido aprovado ou não.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RN15</t>
+    <t>Enviar mensagem de negociação</t>
+  </si>
+  <si>
+    <t>Enviar mensagem de negociação de um anúncio</t>
+  </si>
+  <si>
+    <t>Comprador.</t>
+  </si>
+  <si>
+    <t>1. Ator na tela de anúncio.</t>
+  </si>
+  <si>
+    <t>2. Ator autenticado</t>
+  </si>
+  <si>
+    <t>Ator selecionar a opção de enviar mensagem ao vendedor</t>
+  </si>
+  <si>
+    <t>1. Sistema redireciona o ator para uma tela onde as mensagens poderão ser enviadas.</t>
+  </si>
+  <si>
+    <t>2. Ator preenche a mensagem e seleciona o botão de enviar.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Sistema envia a mensagem ao vendedor </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>indicando de qual anúncio se refere a mensagem</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mensagem enviada</t>
   </si>
   <si>
     <t>CDU 10</t>
   </si>
   <si>
-    <t>Enviar mensagem de negociação de um anúncio</t>
-  </si>
-  <si>
-    <t>Comprador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator estar na pagina do anúncio.</t>
-  </si>
-  <si>
-    <t>Ator selecionar a opção de enviar mensagem ao vendedor</t>
-  </si>
-  <si>
-    <t>1. Sistema redireciona o ator para uma tela onde as mensagens poderão ser enviadas.</t>
-  </si>
-  <si>
-    <t>2. Ator preenche a mensagem e seleciona o botão de enviar.</t>
-  </si>
-  <si>
-    <t>3. Sistema envia a mensagem ao vendedor juntamente com as informações do veículo em questão.</t>
-  </si>
-  <si>
-    <t>O vendedor recebe uma mensagem do comprador.</t>
+    <t>Visualizar chat de negociação</t>
+  </si>
+  <si>
+    <t>Usuário.</t>
+  </si>
+  <si>
+    <t>1- Ator estar logado.
+2 - Ator estar na tela de perfil</t>
+  </si>
+  <si>
+    <t>Ator clicar em "Minhas negociações"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Sistema apresenta a tela de "Minhas negociações</t>
+  </si>
+  <si>
+    <t>Ator estar na tela  "minhas negociações"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RN11</t>
   </si>
   <si>
     <t>CDU 11</t>
   </si>
   <si>
-    <t>Visualizar uma mensagem de negociação</t>
-  </si>
-  <si>
-    <t>Ator recebe notificação de uma mensagem de negociação</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Ator seleciona negociar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator insere as informações da proposta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O ator seleciona para enviar proposta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anunciante recebe comunicação da oferta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RN11</t>
+    <t xml:space="preserve"> Finalizar anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Que o anúncio seja finalizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator estar na pagina de "meus anúncios".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ator seleciona o anuncio que deseja finalizar.</t>
+  </si>
+  <si>
+    <t>1. Sistema carrega a página do anúncio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. O ator seleciona o botão de concluir negociação.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3. O sistema altera o status do anúncio para "finalizado"</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> e o redireciona o Ator para a página de "meus anúncios".</t>
+    </r>
+  </si>
+  <si>
+    <t>Anúncio indisponível</t>
   </si>
   <si>
     <t>CDU 12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Finalizar negociação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Que o anúncio seja finalizado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator estar na pagina de "meus anúncios".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ator seleciona o anuncio que deseja finalizar.</t>
-  </si>
-  <si>
-    <t>1. Sistema carrega a página do anúncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O ator seleciona o botão de concluir negociação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. O sistema altera o status do anúncio para "concluído" e exibe uma mensagem ao ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. O sistema redireciona o ator para a página de "meus anúncios".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O anúncio não estar mais disponível.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Altera tema</t>
   </si>
   <si>
@@ -903,13 +976,13 @@
     <t xml:space="preserve"> Ator seleciona a opção "altera tema" no menu</t>
   </si>
   <si>
-    <t>1. Ator seleciona o tema desejado (claro ou escuro).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. O sistema altera as cores de acordo com a opção escolhida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sistema com as cores alteradas aplicadas.</t>
+    <t>Fluxo principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. O sistema altera as cores de acordo com a opção escolhida.</t>
+  </si>
+  <si>
+    <t>Tema alterado</t>
   </si>
 </sst>
 </file>
@@ -935,6 +1008,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -942,11 +1020,6 @@
     <font>
       <i/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1031,17 +1104,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1108,6 +1170,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -1143,6 +1216,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1151,12 +1230,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1186,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1207,93 +1280,99 @@
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1303,31 +1382,22 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1342,38 +1412,60 @@
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,10 +1528,6 @@
 </file>
 
 <file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1751,7 +1839,7 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1759,7 +1847,7 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1767,7 +1855,7 @@
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1821,145 +1909,157 @@
         <v>26</v>
       </c>
       <c r="B1" s="11"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="C3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>161</v>
-      </c>
+      <c r="C6" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="38" t="s">
-        <v>162</v>
-      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="C8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="C9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="54" t="s">
-        <v>169</v>
-      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="54" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="B16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>172</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19">
       <c r="B19" s="11"/>
     </row>
-    <row r="20">
-      <c r="B20" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="A1:A18"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D19"/>
+    <mergeCell ref="D1:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1987,7 +2087,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -1995,115 +2095,102 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>174</v>
+      <c r="C3" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>175</v>
+      <c r="C4" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>129</v>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>161</v>
+      <c r="C6" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="54" t="s">
-        <v>176</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="53" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>177</v>
+      <c r="C8" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" ht="27.75" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>178</v>
+      <c r="C9" s="61" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" ht="27.0" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="59" t="s">
-        <v>180</v>
+      <c r="B10" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>57</v>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D16"/>
+    <mergeCell ref="D1:D14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2129,12 +2216,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2142,61 +2229,61 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>185</v>
+      <c r="C3" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>186</v>
+      <c r="C4" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>187</v>
+      <c r="C6" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="54" t="s">
-        <v>162</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="53" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>188</v>
+      <c r="C8" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>189</v>
+      <c r="C9" s="17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2204,7 +2291,7 @@
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2212,15 +2299,15 @@
       <c r="B12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>190</v>
+      <c r="C12" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2263,12 +2350,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2276,61 +2363,61 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>192</v>
+      <c r="C3" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>193</v>
+      <c r="C4" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>194</v>
+      <c r="C5" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>195</v>
+      <c r="C6" s="33" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="38" t="s">
-        <v>162</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>196</v>
+      <c r="C8" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>197</v>
+      <c r="C9" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2338,7 +2425,7 @@
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2346,15 +2433,15 @@
       <c r="B12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>198</v>
+      <c r="C12" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2397,12 +2484,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2410,69 +2497,69 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>200</v>
+      <c r="C3" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>201</v>
+      <c r="C4" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>194</v>
+      <c r="C5" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>202</v>
+      <c r="C6" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>203</v>
+      <c r="C7" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>205</v>
+      <c r="C8" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" ht="42.0" customHeight="1">
+      <c r="B9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" ht="34.5" customHeight="1">
-      <c r="B10" s="32"/>
-      <c r="C10" s="62" t="s">
-        <v>206</v>
+      <c r="B10" s="34"/>
+      <c r="C10" s="63" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2480,15 +2567,15 @@
       <c r="B12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>207</v>
+      <c r="C12" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2515,6 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2531,12 +2619,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2544,31 +2632,31 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>209</v>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>209</v>
+      <c r="C4" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>194</v>
+      <c r="C5" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2576,23 +2664,23 @@
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>210</v>
+      <c r="C7" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>211</v>
+      <c r="C8" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2600,7 +2688,7 @@
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2608,15 +2696,15 @@
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>212</v>
+      <c r="C11" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2634,6 +2722,9 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:C13"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2649,7 +2740,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.13"/>
+    <col customWidth="1" min="3" max="3" width="50.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2658,12 +2749,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2671,102 +2762,133 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>214</v>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>152</v>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
+      <c r="C5" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>57</v>
+      <c r="C6" s="37" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="C7" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" ht="29.25" customHeight="1">
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C8" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" ht="29.25" customHeight="1">
+      <c r="B9" s="26"/>
+      <c r="C9" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="B12" s="34"/>
+      <c r="C12" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="B13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" ht="33.0" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="14" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11"/>
+      <c r="C17" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2792,12 +2914,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2805,7 +2927,7 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2813,131 +2935,113 @@
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
+      <c r="C4" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="10" ht="29.25" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39" t="s">
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" ht="29.25" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="34"/>
+      <c r="C12" s="70" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" ht="29.25" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="48" t="s">
+    <row r="13" ht="55.5" customHeight="1">
+      <c r="B13" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" ht="30.75" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48" t="s">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="27"/>
-      <c r="C11" s="41" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" ht="20.25" customHeight="1">
-      <c r="B12" s="27"/>
-      <c r="C12" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" ht="20.25" customHeight="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="B14" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" ht="33.0" customHeight="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="64" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="B16" s="32"/>
-      <c r="C16" s="65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="11"/>
+    <row r="17">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A20"/>
+    <mergeCell ref="A1:A17"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D20"/>
+    <mergeCell ref="D1:D17"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2963,12 +3067,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2976,226 +3080,73 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
+      <c r="C3" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>231</v>
+      <c r="C4" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>129</v>
+      <c r="C5" s="33" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>232</v>
+      <c r="C6" s="25" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
-        <v>162</v>
+      <c r="B7" s="34"/>
+      <c r="C7" s="72" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" ht="29.25" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="27"/>
-      <c r="C11" s="48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="B12" s="32"/>
-      <c r="C12" s="59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B17:C17"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" ht="27.75" customHeight="1">
-      <c r="B9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3203,7 +3154,7 @@
       <c r="B13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3211,15 +3162,15 @@
       <c r="B14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>248</v>
+      <c r="C14" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3243,226 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="30.75" customHeight="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="29.25" customHeight="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="B21" s="27"/>
-      <c r="C21" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="27"/>
-      <c r="C22" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" ht="30.0" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" ht="30.0" customHeight="1">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D29"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B29:C29"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3480,12 +3212,12 @@
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -3493,67 +3225,422 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
+      <c r="C3" s="37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>250</v>
+      <c r="C4" s="37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" ht="34.5" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" ht="6.75" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="70"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="B10" s="41" t="s">
         <v>129</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="66.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="30.75" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="29.25" customHeight="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="18.0" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="B24" s="26"/>
+      <c r="C24" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="B28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D29"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:C29"/>
+  </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="50.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>202</v>
+      <c r="C6" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>251</v>
+      <c r="C7" s="33" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>252</v>
+      <c r="C8" s="61" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="59" t="s">
-        <v>254</v>
+      <c r="B9" s="26"/>
+      <c r="C9" s="74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" ht="33.75" customHeight="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="61" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3561,7 +3648,7 @@
       <c r="B12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3569,16 +3656,16 @@
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>255</v>
+      <c r="C13" s="37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>256</v>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -3604,6 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3620,12 +3708,12 @@
       </c>
       <c r="B1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -3633,249 +3721,99 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>258</v>
+      <c r="C3" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>259</v>
+      <c r="C4" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>129</v>
+      <c r="C5" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>260</v>
+      <c r="C6" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>261</v>
+      <c r="C7" s="33" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>262</v>
+      <c r="B8" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="B9" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14" t="s">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B16:C16"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11"/>
     </row>
     <row r="14">
       <c r="B14" s="11"/>
     </row>
-    <row r="15">
-      <c r="B15" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A13"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D13"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3884,6 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3910,7 +3849,7 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3918,7 +3857,7 @@
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3926,7 +3865,7 @@
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3934,7 +3873,7 @@
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="37" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3942,61 +3881,59 @@
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="B12" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="26" t="s">
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="31" t="s">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="40" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="32"/>
-      <c r="C14" s="38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4004,16 +3941,16 @@
       <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>76</v>
+      <c r="C16" s="37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>77</v>
+      <c r="C17" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -4034,6 +3971,9 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B18:C18"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4042,6 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4060,7 +4001,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4068,23 +4009,23 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>79</v>
+      <c r="C3" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>80</v>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4092,76 +4033,72 @@
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>81</v>
+      <c r="C6" s="37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>82</v>
+      <c r="C7" s="33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>83</v>
+      <c r="C8" s="42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="38" t="s">
-        <v>84</v>
+      <c r="B9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="11"/>
+    <row r="13">
+      <c r="B13" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A13"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D13"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4170,6 +4107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4188,7 +4126,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4196,23 +4134,23 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>86</v>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>87</v>
+      <c r="C4" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4220,75 +4158,69 @@
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>88</v>
+      <c r="C6" s="37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="26"/>
+      <c r="C9" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="34"/>
+      <c r="C11" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="41" t="s">
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="B12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" ht="28.5" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" ht="29.25" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" ht="21.0" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" ht="20.25" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="47" t="s">
-        <v>97</v>
-      </c>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" ht="3.75" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="47"/>
+    </row>
+    <row r="15" ht="1.5" customHeight="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="48"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="B16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4296,16 +4228,16 @@
       <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>98</v>
+      <c r="C17" s="37" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="B18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>99</v>
+      <c r="C18" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -4321,6 +4253,9 @@
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4329,6 +4264,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="59.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="B9" s="26"/>
+      <c r="C9" s="49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" customHeight="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="34"/>
+      <c r="C18" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A22"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D22"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4347,7 +4467,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4355,261 +4475,69 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>101</v>
+      <c r="C4" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>102</v>
+      <c r="C6" s="53" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>103</v>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>104</v>
+      <c r="C8" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="48" t="s">
-        <v>105</v>
+      <c r="B9" s="22"/>
+      <c r="C9" s="54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B24:C24"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="50.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>124</v>
+      <c r="B10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4617,15 +4545,15 @@
       <c r="B12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>125</v>
+      <c r="C12" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4646,6 +4574,9 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4672,7 +4603,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4680,175 +4611,163 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>127</v>
+      <c r="C3" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>128</v>
+      <c r="C4" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>129</v>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>130</v>
+      <c r="C6" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" ht="66.0" customHeight="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="B13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
+    <row r="15" ht="30.0" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" ht="21.0" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" ht="53.25" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="37" t="s">
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="56" t="s">
+    <row r="18" ht="30.0" customHeight="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="56" t="s">
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="24" t="s">
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="B20" s="34"/>
+      <c r="C20" s="40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" ht="30.75" customHeight="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" ht="35.25" customHeight="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="27"/>
-      <c r="C21" s="41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="38" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A26"/>
+    <mergeCell ref="A1:A24"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D26"/>
+    <mergeCell ref="D1:D24"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4876,7 +4795,7 @@
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4884,23 +4803,23 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>151</v>
+      <c r="C3" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>152</v>
+      <c r="C4" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4908,78 +4827,71 @@
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>153</v>
+      <c r="C6" s="36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>154</v>
+      <c r="C7" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>155</v>
+      <c r="C8" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
-        <v>156</v>
+      <c r="B9" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>124</v>
+      <c r="B10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11"/>
     </row>
     <row r="14">
       <c r="B14" s="11"/>
     </row>
-    <row r="15">
-      <c r="B15" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A13"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D13"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
